--- a/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-padron-edad-grias.xlsx
+++ b/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-padron-edad-grias.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Dominios" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Padron_Nominal!$A$5:$BD$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Padron_Nominal!$A$5:$BC$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="206">
   <si>
     <t>NIVEL_INSTRUCCION</t>
   </si>
@@ -739,19 +739,6 @@
   </si>
   <si>
     <t>ENTIDAD</t>
-  </si>
-  <si>
-    <t>ESTADO DE REGISTRO
-0=INACTIVO
-1= ACTIVO
-2=ACTIVO OBSERVADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTADO DE REGISTRO
-</t>
-  </si>
-  <si>
-    <t>¿MENOR ENCONTRADO?</t>
   </si>
 </sst>
 </file>
@@ -1105,6 +1092,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1114,11 +1135,47 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1126,76 +1183,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1206,14 +1193,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -1642,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BC5" sqref="A5:BC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1685,322 +1665,317 @@
     <col min="47" max="47" width="17.140625" style="3" customWidth="1"/>
     <col min="48" max="48" width="19.7109375" style="3" customWidth="1"/>
     <col min="49" max="49" width="23.140625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" style="3" customWidth="1"/>
-    <col min="51" max="52" width="13.42578125" style="3" customWidth="1"/>
-    <col min="53" max="53" width="17.28515625" style="2" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="2"/>
-    <col min="55" max="55" width="18.140625" style="2" customWidth="1"/>
-    <col min="56" max="56" width="19.140625" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="11.42578125" style="2"/>
+    <col min="50" max="51" width="13.42578125" style="3" customWidth="1"/>
+    <col min="52" max="52" width="17.28515625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="11.42578125" style="2"/>
+    <col min="54" max="54" width="18.140625" style="2" customWidth="1"/>
+    <col min="55" max="55" width="19.140625" style="2" customWidth="1"/>
+    <col min="56" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="26" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="26" t="s">
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="26" t="s">
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="13"/>
     </row>
     <row r="2" spans="1:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="12" t="s">
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="16" t="s">
+      <c r="V2" s="10"/>
+      <c r="W2" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
       <c r="AF2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AG2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AH2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
-      <c r="BD2" s="29"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="3"/>
     </row>
     <row r="3" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="12" t="s">
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AI3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AK3" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AM3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AN3" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AO3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AP3" s="14" t="s">
+      <c r="AP3" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AQ3" s="14" t="s">
+      <c r="AQ3" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="AR3" s="14" t="s">
+      <c r="AR3" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="AS3" s="14" t="s">
+      <c r="AS3" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AT3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AU3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AV3" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AW3" s="19" t="s">
         <v>121</v>
       </c>
       <c r="AX3" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="AY3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BA3" s="10" t="s">
         <v>143</v>
       </c>
+      <c r="BB3" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="BC3" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD3" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="9" t="s">
         <v>190</v>
       </c>
@@ -2019,42 +1994,41 @@
       <c r="V4" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
       <c r="AG4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="13"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="21"/>
     </row>
     <row r="5" spans="1:56" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2073,7 +2047,7 @@
         <v>204</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>146</v>
@@ -2205,51 +2179,50 @@
         <v>165</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BB5" s="5" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="BC5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD5" s="5" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:BD5"/>
-  <mergeCells count="57">
-    <mergeCell ref="AX1:BD2"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="AJ1:AN2"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AO1:AW2"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
+  <autoFilter ref="A5:BC5"/>
+  <mergeCells count="56">
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="N2:P4"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="X2:AE2"/>
@@ -2262,122 +2235,114 @@
     <mergeCell ref="W2:W4"/>
     <mergeCell ref="U2:V3"/>
     <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AX1:BC2"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="AJ1:AN2"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AO1:AW2"/>
+    <mergeCell ref="Q2:R3"/>
     <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2 X2:X3 AB3 AG2 AF3 AJ1 AO1 AY3:BC3 AG4 AX1 Y3:Z3 AH3:AV3 S2 AE5:AW5 P5 S5:T5 G2:L2 AY5:BC5">
-    <cfRule type="expression" dxfId="18" priority="26">
+  <conditionalFormatting sqref="A2 X2:X3 AB3 AG2 AF3 AJ1 AO1 AX3:BB3 AG4 AX1 Y3:Z3 AH3:AV3 S2 AE5:BB5 P5 S5:T5 G2:L2">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="expression" dxfId="15" priority="23">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3">
-    <cfRule type="expression" dxfId="14" priority="22">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:L5 U5:AD5">
-    <cfRule type="expression" dxfId="13" priority="21">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD3">
-    <cfRule type="expression" dxfId="11" priority="18">
+  <conditionalFormatting sqref="BC3">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD5">
-    <cfRule type="expression" dxfId="10" priority="17">
+  <conditionalFormatting sqref="BC5">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:O5">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2 Q5:R5">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
